--- a/03.試験/システムテスト_テストケース.xlsx
+++ b/03.試験/システムテスト_テストケース.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/documents/Projects/msar/03.試験/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\work\03.試験\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C73076E-EDB0-C649-AC82-F5246C3271FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D8A174-14EE-4022-85CF-E43C6DB16614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="24940" windowHeight="15000" activeTab="1" xr2:uid="{84181F6B-7837-4548-ADDC-27DDE9B19BA3}"/>
+    <workbookView xWindow="1755" yWindow="2280" windowWidth="26805" windowHeight="12360" tabRatio="733" activeTab="2" xr2:uid="{84181F6B-7837-4548-ADDC-27DDE9B19BA3}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="166">
   <si>
     <t>システムテスト</t>
   </si>
@@ -109,11 +109,6 @@
   </si>
   <si>
     <t>メモ (特記事項、エビデンス情報など)</t>
-  </si>
-  <si>
-    <t>アプリストアから「卒ARu」をインストールする
-- iOS版のテストは、DeployGateで配布されたものであること
-- アプリのバージョンは、操作当時の最新版であること</t>
   </si>
   <si>
     <t>卒ARu iOS版アプリを起動する
@@ -134,12 +129,6 @@
   </si>
   <si>
     <t>- 操作当時の最新版の卒ARu iOS版をインストール完了</t>
-  </si>
-  <si>
-    <t>ARカメラを起動する
-- ARカメラボタンを押下すること
-- アルバムIDを手動で入力しないこと
-- アルバムIDのQRコードをスキャンしないこと</t>
   </si>
   <si>
     <t>- アプリを起動できること
@@ -170,370 +159,583 @@
 返し再生されること</t>
   </si>
   <si>
+    <t>- ARカメラを起動できること</t>
+  </si>
+  <si>
+    <t>試験項目数</t>
+  </si>
+  <si>
+    <t>消化数</t>
+  </si>
+  <si>
+    <t>消化率</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>番号</t>
+  </si>
+  <si>
+    <t>iOS版のアプリでチュートリアルの動画を見ることができない
+(チュートリアルのアルバムID以外を入力している場合)</t>
+  </si>
+  <si>
+    <t>メモ (過去のテスト日付, エビデンス情報, 特記事項など)</t>
+  </si>
+  <si>
+    <t>- ARアプリ iOS版
+- 再生回数カウントアップAPI (RDS, API, WAF)</t>
+  </si>
+  <si>
+    <t>- ARアプリ Android版
+- 再生回数カウントアップAPI (RDS, API, WAF)</t>
+  </si>
+  <si>
+    <t>(例)
+11/5 NG, エビデンス ./evidence/23.png, アプリはDeployGate #5 版でテスト
+11/6 修正完了, アプリはDeployGate #6 版でテスト</t>
+  </si>
+  <si>
+    <t>テスト実施日に初めて再生するコンテンツを対象に、ARカメラを起動して動画再生を始める。再生が始まったらデータベース内に当日の再生回数に「1」と記録した行が作成されていること。</t>
+  </si>
+  <si>
+    <t>テスト実施日に2回以上再生するコンテンツを対象に、ARカメラを起動して動画再生を始める。再生が始まったらデータベース内の当日の再生回数が再生前より「1」追加されていること。</t>
+  </si>
+  <si>
+    <t>ARで再生した動画が終了し、リピートで冒頭から再生が始まったときに、データベース内の当日の再生回数が再生前より「1」追加されていること。</t>
+  </si>
+  <si>
+    <t>動画再生回数を分析するシナリオ (iOS版)</t>
+  </si>
+  <si>
+    <t>動画再生回数を分析するシナリオ (Android版)</t>
+  </si>
+  <si>
+    <t>アルバム情報、コンテンツ情報を作成し、動画をアプリ再生用に変換するシナリオ</t>
+  </si>
+  <si>
+    <t>- CMS (EC2, Cognito, RDS, DynamoDB)
+- 動画配信基盤 (S3)
+- 動画変換処理基盤 (S3, Lambda, MediaConvert, DynamoDB, SES)</t>
+  </si>
+  <si>
+    <t>シナリオの分類</t>
+  </si>
+  <si>
+    <t>エンドユーザーがモバイルアプリを用いて、アルバムに紐づく動画を再生する</t>
+  </si>
+  <si>
+    <t>動画の再生回数を記録し、CMSで事業者・代理店へ表示する</t>
+  </si>
+  <si>
+    <t>事業者・代理店がアルバムに紐づく動画を登録する</t>
+  </si>
+  <si>
+    <t>領域</t>
+  </si>
+  <si>
+    <t>C. マーケティング支援</t>
+  </si>
+  <si>
+    <t>B. コンテンツ管理</t>
+  </si>
+  <si>
+    <t>A. AR機能</t>
+  </si>
+  <si>
+    <t>A 1</t>
+  </si>
+  <si>
+    <t>A 2</t>
+  </si>
+  <si>
+    <t>A 3</t>
+  </si>
+  <si>
+    <t>A 4</t>
+  </si>
+  <si>
+    <t>A 5</t>
+  </si>
+  <si>
+    <t>A 6</t>
+  </si>
+  <si>
+    <t>A 7</t>
+  </si>
+  <si>
+    <t>A 8</t>
+  </si>
+  <si>
+    <t>A 9</t>
+  </si>
+  <si>
+    <t>A 10</t>
+  </si>
+  <si>
+    <t>A 11</t>
+  </si>
+  <si>
+    <t>A 12</t>
+  </si>
+  <si>
+    <t>A 13</t>
+  </si>
+  <si>
+    <t>A 14</t>
+  </si>
+  <si>
+    <t>A 15</t>
+  </si>
+  <si>
+    <t>A 16</t>
+  </si>
+  <si>
+    <t>A 17</t>
+  </si>
+  <si>
+    <t>A 18</t>
+  </si>
+  <si>
+    <t>A 19</t>
+  </si>
+  <si>
+    <t>A 20</t>
+  </si>
+  <si>
+    <t>A 21</t>
+  </si>
+  <si>
+    <t>A 22</t>
+  </si>
+  <si>
+    <t>A 23</t>
+  </si>
+  <si>
+    <t>A 24</t>
+  </si>
+  <si>
+    <t>A 25</t>
+  </si>
+  <si>
+    <t>A 26</t>
+  </si>
+  <si>
+    <t>A 27</t>
+  </si>
+  <si>
+    <t>A 28</t>
+  </si>
+  <si>
+    <t>A 29</t>
+  </si>
+  <si>
+    <t>A 30</t>
+  </si>
+  <si>
+    <t>A 31</t>
+  </si>
+  <si>
+    <t>A 32</t>
+  </si>
+  <si>
+    <t>A 33</t>
+  </si>
+  <si>
+    <t>A 34</t>
+  </si>
+  <si>
+    <t>A 35</t>
+  </si>
+  <si>
+    <t>A 36</t>
+  </si>
+  <si>
+    <t>A 37</t>
+  </si>
+  <si>
+    <t>A 38</t>
+  </si>
+  <si>
+    <t>C 1</t>
+  </si>
+  <si>
+    <t>C 2</t>
+  </si>
+  <si>
+    <t>C 3</t>
+  </si>
+  <si>
+    <t>C 4</t>
+  </si>
+  <si>
+    <t>C 5</t>
+  </si>
+  <si>
+    <t>C 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ARカメラを卒業アルバムにかざした時に、そのアルバムに紐づく動画をアルバムに重ねて再生する (iOS版)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ARカメラを卒業アルバムにかざした時に、そのアルバムに紐づく動画をアルバムに重ねて再生する (Android版)</t>
+  </si>
+  <si>
+    <t>iOS版のアプリで任意の学校の卒業アルバムの動画を見ることができる (テキスト入力)</t>
+  </si>
+  <si>
+    <t>iOS版のアプリで任意の学校の卒業アルバムの動画を見ることができる (ARカメラを切って、再びARカメラを起動する)</t>
+  </si>
+  <si>
+    <t>iOS版のアプリで任意の学校の卒業アルバムの動画を見ることができる (前回の続き)</t>
+  </si>
+  <si>
+    <t>iOS版のアプリで別の任意の学校の卒業アルバムに切り替えた時に、以前の卒業アルバムの動画は再生しない (テキスト入力)</t>
+  </si>
+  <si>
+    <t>iOS版のアプリで別の任意の学校の卒業アルバムに切り替えた時に、以前の卒業アルバムの動画は再生しない (ARカメラを切って、再びARカメラを起動する)</t>
+  </si>
+  <si>
+    <t>iOS版のアプリで別の任意の学校の卒業アルバムに切り替えた時に、以前の卒業アルバムの動画は再生しない (前回のつづき)</t>
+  </si>
+  <si>
+    <t>iOS版のアプリで動画の再生開始が遅い / 途切れ途切れになる (インターネット回線が弱い場合)</t>
+  </si>
+  <si>
+    <t>iOS版のアプリで動画の再生開始が遅い / 途切れ途切れになる (端末のメモリの容量が小さい場合)</t>
+  </si>
+  <si>
+    <t>iOS版のアプリで動画の再生開始が遅い / 途切れ途切れになる (端末のストレージの残容量が小さい場合)</t>
+  </si>
+  <si>
+    <t>iOS版のアプリでチュートリアルの動画を見ることができない (端末がインターネットに接続できない状況にいる場合)</t>
+  </si>
+  <si>
+    <t>iOS版のアプリでチュートリアルの動画を見ることができない (端末のメモリの容量が小さい場合)</t>
+  </si>
+  <si>
+    <t>iOS版のアプリでチュートリアルの動画を見ることができない (端末のストレージの残容量が小さい場合)</t>
+  </si>
+  <si>
+    <t>iOS版のアプリでチュートリアルの動画を見ることができない (インターネットプロバイダにエラーが生じている場合)</t>
+  </si>
+  <si>
+    <t>iOS版のアプリでチュートリアルの動画を見ることができない (動画配信基盤にエラーが生じている場合)</t>
+  </si>
+  <si>
+    <t>iOS版のアプリでチュートリアルの動画を見ることができない (コンテンツURL取得APIのインフラにエラーが生じている場合)</t>
+  </si>
+  <si>
+    <t>Android版のアプリで任意の学校の卒業アルバムの動画を見ることができる (テキスト入力)</t>
+  </si>
+  <si>
+    <t>Android版のアプリで任意の学校の卒業アルバムの動画を見ることができる (QRコードスキャン)</t>
+  </si>
+  <si>
+    <t>Android版のアプリで任意の学校の卒業アルバムの動画を見ることができる (ARカメラを切って、再びARカメラを起動する)</t>
+  </si>
+  <si>
+    <t>Android版のアプリで任意の学校の卒業アルバムの動画を見ることができる (前回の続き)</t>
+  </si>
+  <si>
+    <t>Android版のアプリで別の任意の学校の卒業アルバムに切り替えた時に、以前の卒業アルバムの動画は再生しない (テキスト入力)</t>
+  </si>
+  <si>
+    <t>Android版のアプリで別の任意の学校の卒業アルバムに切り替えた時に、以前の卒業アルバムの動画は再生しない (QRコード)</t>
+  </si>
+  <si>
+    <t>Android版のアプリで別の任意の学校の卒業アルバムに切り替えた時に、以前の卒業アルバムの動画は再生しない (ARカメラを切って、再びARカメラを起動する)</t>
+  </si>
+  <si>
+    <t>Android版のアプリで別の任意の学校の卒業アルバムに切り替えた時に、以前の卒業アルバムの動画は再生しない (前回のつづき)</t>
+  </si>
+  <si>
+    <t>Android版のアプリで動画の再生開始が遅い / 途切れ途切れになる (インターネット回線が弱い場合)</t>
+  </si>
+  <si>
+    <t>Android版のアプリで動画の再生開始が遅い / 途切れ途切れになる (端末のメモリの容量が小さい場合)</t>
+  </si>
+  <si>
+    <t>Android版のアプリで動画の再生開始が遅い / 途切れ途切れになる (端末のストレージの残容量が小さい場合)</t>
+  </si>
+  <si>
+    <t>Android版のアプリでチュートリアルの動画を見ることができない (チュートリアルのアルバムID以外を入力している場合)</t>
+  </si>
+  <si>
+    <t>Android版のアプリでチュートリアルの動画を見ることができない (端末がインターネットに接続できない状況にいる場合)</t>
+  </si>
+  <si>
+    <t>Android版のアプリでチュートリアルの動画を見ることができない (端末のメモリの容量が小さい場合)</t>
+  </si>
+  <si>
+    <t>Android版のアプリでチュートリアルの動画を見ることができない (端末のストレージの残容量が小さい場合)</t>
+  </si>
+  <si>
+    <t>Android版のアプリでチュートリアルの動画を見ることができない (インターネットプロバイダにエラーが生じている場合)</t>
+  </si>
+  <si>
+    <t>Android版のアプリでチュートリアルの動画を見ることができない (動画配信基盤にエラーが生じている場合)</t>
+  </si>
+  <si>
+    <t>Android版のアプリでチュートリアルの動画を見ることができない (コンテンツURL取得APIのインフラにエラーが生じている場合)</t>
+  </si>
+  <si>
+    <t>アプリストアから「卒ARu」をインストールする
+- iOS版のテストは、DeployGateで配布されたものであること
+- アプリのバージョンは、操作当時の最新版であること</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卒ARu iOS版アプリを起動する
+- インストールしたアプリを起動すること</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- アプリを起動できること
+- 起動直後にスプラッシュが表示されること
+- スプラッシュでは「Unity」のロゴは表示されないこと
+- スプラッシュから自動でホーム画面へ遷移すること</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- アルバムに紐づく動画は、見終わると冒頭から繰り
+返し再生されること</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>再生した動画が終わったら、冒頭から繰り返し再生される
+- 動画を見終わること</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- ARカメラを起動できること
+-バーコード読取枠に赤線が点滅していること
+- アルバムIDの入力については何も表示されないこと</t>
+    <rPh sb="22" eb="24">
+      <t>よみとり</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>わく</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>あかせん</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>てんめつ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 写真の上に、動画プレーヤーが表示されること
+- 動画の再生すぐに始まらない場合、読み込み中の
+インジケータがアニメーションで表示されること
+- 動画の再生が始まること</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ARカメラを起動する
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入力したアルバムIDの卒業アルバム用の動画を見る
+- 登録済みの写真にARカメラをかざすこと</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOS版のアプリで任意の学校の卒業アルバムの動画を見ることができる (バーコードスキャン)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- ARカメラを起動できること
+- 登録済みの写真にARカメラをかざすこと
+- 登録済み写真上に動画プレーヤーが表示されること
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOS版のアプリで別の任意の学校の卒業アルバムに切り替えた時に、以前の卒業アルバムの動画は再生しない (バーコード)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>バーコード読取をしない</t>
+    <rPh sb="5" eb="7">
+      <t>よみとり</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 読取バーコードにかざさない場合、60秒経つとメニュー画面に戻ること</t>
+    <rPh sb="2" eb="4">
+      <t>よみとり</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ばあい</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>びょう</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>た</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>がめん</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>もど</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARカメラを起動する
+- ARカメラボタンを押下すること
+- アルバムIDを手動で入力しないこと
+- アルバムIDのバーコードをスキャンしないこと</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>アルバムIDを手動で入力する
 - アルバムIDボタンを押下すること
 - アルバムIDを手動で入力すること
-- アルバムIDのQRコードをスキャンしないこと</t>
-  </si>
-  <si>
-    <t>- ARカメラを起動できること</t>
-  </si>
-  <si>
-    <t>入力したアルバムIDの卒業アルバム用の動画を見る
-- 登録済みの写真にARカメラをかざすこと</t>
-  </si>
-  <si>
-    <t>試験項目数</t>
-  </si>
-  <si>
-    <t>消化数</t>
-  </si>
-  <si>
-    <t>消化率</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>NG</t>
-  </si>
-  <si>
-    <t>番号</t>
-  </si>
-  <si>
-    <t>iOS版のアプリでチュートリアルの動画を見ることができない
-(チュートリアルのアルバムID以外を入力している場合)</t>
-  </si>
-  <si>
-    <t>メモ (過去のテスト日付, エビデンス情報, 特記事項など)</t>
-  </si>
-  <si>
-    <t>- ARアプリ iOS版
-- 再生回数カウントアップAPI (RDS, API, WAF)</t>
-  </si>
-  <si>
-    <t>- ARアプリ Android版
-- 再生回数カウントアップAPI (RDS, API, WAF)</t>
-  </si>
-  <si>
-    <t>(例)
-11/5 NG, エビデンス ./evidence/23.png, アプリはDeployGate #5 版でテスト
-11/6 修正完了, アプリはDeployGate #6 版でテスト</t>
-  </si>
-  <si>
-    <t>テスト実施日に初めて再生するコンテンツを対象に、ARカメラを起動して動画再生を始める。再生が始まったらデータベース内に当日の再生回数に「1」と記録した行が作成されていること。</t>
-  </si>
-  <si>
-    <t>テスト実施日に2回以上再生するコンテンツを対象に、ARカメラを起動して動画再生を始める。再生が始まったらデータベース内の当日の再生回数が再生前より「1」追加されていること。</t>
-  </si>
-  <si>
-    <t>ARで再生した動画が終了し、リピートで冒頭から再生が始まったときに、データベース内の当日の再生回数が再生前より「1」追加されていること。</t>
-  </si>
-  <si>
-    <t>動画再生回数を分析するシナリオ (iOS版)</t>
-  </si>
-  <si>
-    <t>動画再生回数を分析するシナリオ (Android版)</t>
-  </si>
-  <si>
-    <t>アルバム情報、コンテンツ情報を作成し、動画をアプリ再生用に変換するシナリオ</t>
-  </si>
-  <si>
-    <t>- CMS (EC2, Cognito, RDS, DynamoDB)
-- 動画配信基盤 (S3)
-- 動画変換処理基盤 (S3, Lambda, MediaConvert, DynamoDB, SES)</t>
-  </si>
-  <si>
-    <t>シナリオの分類</t>
-  </si>
-  <si>
-    <t>エンドユーザーがモバイルアプリを用いて、アルバムに紐づく動画を再生する</t>
-  </si>
-  <si>
-    <t>動画の再生回数を記録し、CMSで事業者・代理店へ表示する</t>
-  </si>
-  <si>
-    <t>事業者・代理店がアルバムに紐づく動画を登録する</t>
-  </si>
-  <si>
-    <t>領域</t>
-  </si>
-  <si>
-    <t>C. マーケティング支援</t>
-  </si>
-  <si>
-    <t>B. コンテンツ管理</t>
-  </si>
-  <si>
-    <t>A. AR機能</t>
-  </si>
-  <si>
-    <t>A 1</t>
-  </si>
-  <si>
-    <t>A 2</t>
-  </si>
-  <si>
-    <t>A 3</t>
-  </si>
-  <si>
-    <t>A 4</t>
-  </si>
-  <si>
-    <t>A 5</t>
-  </si>
-  <si>
-    <t>A 6</t>
-  </si>
-  <si>
-    <t>A 7</t>
-  </si>
-  <si>
-    <t>A 8</t>
-  </si>
-  <si>
-    <t>A 9</t>
-  </si>
-  <si>
-    <t>A 10</t>
-  </si>
-  <si>
-    <t>A 11</t>
-  </si>
-  <si>
-    <t>A 12</t>
-  </si>
-  <si>
-    <t>A 13</t>
-  </si>
-  <si>
-    <t>A 14</t>
-  </si>
-  <si>
-    <t>A 15</t>
-  </si>
-  <si>
-    <t>A 16</t>
-  </si>
-  <si>
-    <t>A 17</t>
-  </si>
-  <si>
-    <t>A 18</t>
-  </si>
-  <si>
-    <t>A 19</t>
-  </si>
-  <si>
-    <t>A 20</t>
-  </si>
-  <si>
-    <t>A 21</t>
-  </si>
-  <si>
-    <t>A 22</t>
-  </si>
-  <si>
-    <t>A 23</t>
-  </si>
-  <si>
-    <t>A 24</t>
-  </si>
-  <si>
-    <t>A 25</t>
-  </si>
-  <si>
-    <t>A 26</t>
-  </si>
-  <si>
-    <t>A 27</t>
-  </si>
-  <si>
-    <t>A 28</t>
-  </si>
-  <si>
-    <t>A 29</t>
-  </si>
-  <si>
-    <t>A 30</t>
-  </si>
-  <si>
-    <t>A 31</t>
-  </si>
-  <si>
-    <t>A 32</t>
-  </si>
-  <si>
-    <t>A 33</t>
-  </si>
-  <si>
-    <t>A 34</t>
-  </si>
-  <si>
-    <t>A 35</t>
-  </si>
-  <si>
-    <t>A 36</t>
-  </si>
-  <si>
-    <t>A 37</t>
-  </si>
-  <si>
-    <t>A 38</t>
-  </si>
-  <si>
-    <t>C 1</t>
-  </si>
-  <si>
-    <t>C 2</t>
-  </si>
-  <si>
-    <t>C 3</t>
-  </si>
-  <si>
-    <t>C 4</t>
-  </si>
-  <si>
-    <t>C 5</t>
-  </si>
-  <si>
-    <t>C 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ARカメラを卒業アルバムにかざした時に、そのアルバムに紐づく動画をアルバムに重ねて再生する (iOS版)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ARカメラを卒業アルバムにかざした時に、そのアルバムに紐づく動画をアルバムに重ねて再生する (Android版)</t>
-  </si>
-  <si>
-    <t>iOS版のアプリで任意の学校の卒業アルバムの動画を見ることができる (テキスト入力)</t>
-  </si>
-  <si>
-    <t>iOS版のアプリで任意の学校の卒業アルバムの動画を見ることができる (QRコードスキャン)</t>
-  </si>
-  <si>
-    <t>iOS版のアプリで任意の学校の卒業アルバムの動画を見ることができる (ARカメラを切って、再びARカメラを起動する)</t>
-  </si>
-  <si>
-    <t>iOS版のアプリで任意の学校の卒業アルバムの動画を見ることができる (前回の続き)</t>
-  </si>
-  <si>
-    <t>iOS版のアプリで別の任意の学校の卒業アルバムに切り替えた時に、以前の卒業アルバムの動画は再生しない (テキスト入力)</t>
-  </si>
-  <si>
-    <t>iOS版のアプリで別の任意の学校の卒業アルバムに切り替えた時に、以前の卒業アルバムの動画は再生しない (QRコード)</t>
-  </si>
-  <si>
-    <t>iOS版のアプリで別の任意の学校の卒業アルバムに切り替えた時に、以前の卒業アルバムの動画は再生しない (ARカメラを切って、再びARカメラを起動する)</t>
-  </si>
-  <si>
-    <t>iOS版のアプリで別の任意の学校の卒業アルバムに切り替えた時に、以前の卒業アルバムの動画は再生しない (前回のつづき)</t>
-  </si>
-  <si>
-    <t>iOS版のアプリで動画の再生開始が遅い / 途切れ途切れになる (インターネット回線が弱い場合)</t>
-  </si>
-  <si>
-    <t>iOS版のアプリで動画の再生開始が遅い / 途切れ途切れになる (端末のメモリの容量が小さい場合)</t>
-  </si>
-  <si>
-    <t>iOS版のアプリで動画の再生開始が遅い / 途切れ途切れになる (端末のストレージの残容量が小さい場合)</t>
-  </si>
-  <si>
-    <t>iOS版のアプリでチュートリアルの動画を見ることができない (端末がインターネットに接続できない状況にいる場合)</t>
-  </si>
-  <si>
-    <t>iOS版のアプリでチュートリアルの動画を見ることができない (端末のメモリの容量が小さい場合)</t>
-  </si>
-  <si>
-    <t>iOS版のアプリでチュートリアルの動画を見ることができない (端末のストレージの残容量が小さい場合)</t>
-  </si>
-  <si>
-    <t>iOS版のアプリでチュートリアルの動画を見ることができない (インターネットプロバイダにエラーが生じている場合)</t>
-  </si>
-  <si>
-    <t>iOS版のアプリでチュートリアルの動画を見ることができない (動画配信基盤にエラーが生じている場合)</t>
-  </si>
-  <si>
-    <t>iOS版のアプリでチュートリアルの動画を見ることができない (コンテンツURL取得APIのインフラにエラーが生じている場合)</t>
-  </si>
-  <si>
-    <t>Android版のアプリで任意の学校の卒業アルバムの動画を見ることができる (テキスト入力)</t>
-  </si>
-  <si>
-    <t>Android版のアプリで任意の学校の卒業アルバムの動画を見ることができる (QRコードスキャン)</t>
-  </si>
-  <si>
-    <t>Android版のアプリで任意の学校の卒業アルバムの動画を見ることができる (ARカメラを切って、再びARカメラを起動する)</t>
-  </si>
-  <si>
-    <t>Android版のアプリで任意の学校の卒業アルバムの動画を見ることができる (前回の続き)</t>
-  </si>
-  <si>
-    <t>Android版のアプリで別の任意の学校の卒業アルバムに切り替えた時に、以前の卒業アルバムの動画は再生しない (テキスト入力)</t>
-  </si>
-  <si>
-    <t>Android版のアプリで別の任意の学校の卒業アルバムに切り替えた時に、以前の卒業アルバムの動画は再生しない (QRコード)</t>
-  </si>
-  <si>
-    <t>Android版のアプリで別の任意の学校の卒業アルバムに切り替えた時に、以前の卒業アルバムの動画は再生しない (ARカメラを切って、再びARカメラを起動する)</t>
-  </si>
-  <si>
-    <t>Android版のアプリで別の任意の学校の卒業アルバムに切り替えた時に、以前の卒業アルバムの動画は再生しない (前回のつづき)</t>
-  </si>
-  <si>
-    <t>Android版のアプリで動画の再生開始が遅い / 途切れ途切れになる (インターネット回線が弱い場合)</t>
-  </si>
-  <si>
-    <t>Android版のアプリで動画の再生開始が遅い / 途切れ途切れになる (端末のメモリの容量が小さい場合)</t>
-  </si>
-  <si>
-    <t>Android版のアプリで動画の再生開始が遅い / 途切れ途切れになる (端末のストレージの残容量が小さい場合)</t>
-  </si>
-  <si>
-    <t>Android版のアプリでチュートリアルの動画を見ることができない (チュートリアルのアルバムID以外を入力している場合)</t>
-  </si>
-  <si>
-    <t>Android版のアプリでチュートリアルの動画を見ることができない (端末がインターネットに接続できない状況にいる場合)</t>
-  </si>
-  <si>
-    <t>Android版のアプリでチュートリアルの動画を見ることができない (端末のメモリの容量が小さい場合)</t>
-  </si>
-  <si>
-    <t>Android版のアプリでチュートリアルの動画を見ることができない (端末のストレージの残容量が小さい場合)</t>
-  </si>
-  <si>
-    <t>Android版のアプリでチュートリアルの動画を見ることができない (インターネットプロバイダにエラーが生じている場合)</t>
-  </si>
-  <si>
-    <t>Android版のアプリでチュートリアルの動画を見ることができない (動画配信基盤にエラーが生じている場合)</t>
-  </si>
-  <si>
-    <t>Android版のアプリでチュートリアルの動画を見ることができない (コンテンツURL取得APIのインフラにエラーが生じている場合)</t>
+- アルバムIDのバーコードをスキャンしないこと</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意のアルバム登録写真にかざす</t>
+    <rPh sb="0" eb="2">
+      <t>にんい</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>とうろく</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>しゃしん</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-他のアルバムIDで登録されている写真にかざしても動画は再生されないこと</t>
+    <rPh sb="1" eb="2">
+      <t>た</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>とうろく</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>しゃしん</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>どうが</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>さいせい</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">-動画再生がすぐに始まらない場合、読み込み中のインジケータがアニメーションで表示されること
+</t>
+    <rPh sb="14" eb="16">
+      <t>ばあい</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登録していない写真にかざす</t>
+    <rPh sb="0" eb="2">
+      <t>とうろく</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>しゃしん</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>'-ARカメラ起動後、登録写真にかざさないと、50秒をすぎるとiPhoneのライトダウン後、60秒でメニュー画面にもどること</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">入力していないアルバムIDの卒業アルバム用の動画を見る
+- </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>動画再生しないこと</t>
+    <rPh sb="0" eb="1">
+      <t>どうが</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>さいせい</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>アルバムIDを手動で入力しない
+- アルバムIDのバーコードをスキャンしないこと</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ARカメラを起動する
+- バーコードボタンを押下すること
+-バーコードを読み取ること
+- アルバムIDを手動で入力しないこと
+</t>
+    <rPh sb="22" eb="24">
+      <t>おうか</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>よ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>と</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-アルバムIDを変更し,再度スキャンしたとき,バーコードを読み込めない</t>
+    <rPh sb="29" eb="30">
+      <t>よ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>こ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -605,7 +807,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -722,9 +924,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -740,7 +951,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1038,25 +1249,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E32EC5-8F06-4C44-85B3-6ED36E4C1BD0}">
   <dimension ref="B2:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="2.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1068,7 +1281,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -1076,7 +1289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -1084,7 +1297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1096,7 +1309,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>13</v>
       </c>
@@ -1104,7 +1317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -1112,14 +1325,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C18" s="1" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C18" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1129,31 +1342,32 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>62</v>
-      </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1162,24 +1376,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC40FF-363F-5640-B54C-7EA311D4DB84}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C34" sqref="C34:D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="35"/>
-    <col min="2" max="2" width="21.83203125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" style="35"/>
+    <col min="2" max="2" width="21.77734375" style="13" customWidth="1"/>
     <col min="3" max="3" width="10" style="31" customWidth="1"/>
-    <col min="4" max="4" width="80.83203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="50.83203125" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="13"/>
+    <col min="4" max="4" width="80.77734375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="50.77734375" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="10.77734375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="27" customFormat="1" ht="39" x14ac:dyDescent="0.4">
       <c r="A1" s="26" t="s">
         <v>19</v>
       </c>
@@ -1194,669 +1408,669 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="26" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="24"/>
       <c r="D2" s="25"/>
       <c r="E2" s="26"/>
     </row>
-    <row r="3" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="38" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="32"/>
       <c r="D3" s="34"/>
       <c r="E3" s="33"/>
     </row>
-    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A4" s="37"/>
       <c r="B4" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A5" s="37"/>
       <c r="B5" s="20"/>
       <c r="C5" s="28" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A6" s="37"/>
       <c r="B6" s="20"/>
       <c r="C6" s="28" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A7" s="37"/>
       <c r="B7" s="20"/>
       <c r="C7" s="28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A8" s="37"/>
       <c r="B8" s="20"/>
       <c r="C8" s="28" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A9" s="37"/>
       <c r="B9" s="23"/>
       <c r="C9" s="28" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A10" s="37"/>
       <c r="B10" s="23"/>
       <c r="C10" s="28" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A11" s="37"/>
       <c r="B11" s="23"/>
       <c r="C11" s="28" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A12" s="37"/>
       <c r="B12" s="23"/>
       <c r="C12" s="28" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A13" s="37"/>
       <c r="B13" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A14" s="37"/>
       <c r="B14" s="20"/>
       <c r="C14" s="28" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A15" s="37"/>
       <c r="B15" s="20"/>
       <c r="C15" s="28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A16" s="37"/>
       <c r="B16" s="23"/>
       <c r="C16" s="28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A17" s="37"/>
       <c r="B17" s="20"/>
       <c r="C17" s="28" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A18" s="37"/>
       <c r="B18" s="20"/>
       <c r="C18" s="28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A19" s="37"/>
       <c r="B19" s="20"/>
       <c r="C19" s="28" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A20" s="37"/>
       <c r="B20" s="23"/>
       <c r="C20" s="28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A21" s="37"/>
       <c r="B21" s="23"/>
       <c r="C21" s="28" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A22" s="37"/>
       <c r="B22" s="23"/>
       <c r="C22" s="28" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="39" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="32"/>
       <c r="D23" s="34"/>
       <c r="E23" s="33"/>
     </row>
-    <row r="24" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A24" s="37"/>
       <c r="B24" s="20" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A25" s="37"/>
       <c r="B25" s="23"/>
       <c r="C25" s="28" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A26" s="37"/>
       <c r="B26" s="23"/>
       <c r="C26" s="28" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A27" s="37"/>
       <c r="B27" s="23"/>
       <c r="C27" s="28" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A28" s="37"/>
       <c r="B28" s="23"/>
       <c r="C28" s="28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A29" s="37"/>
       <c r="B29" s="20"/>
       <c r="C29" s="28" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A30" s="37"/>
       <c r="B30" s="20"/>
       <c r="C30" s="28" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A31" s="37"/>
       <c r="B31" s="20"/>
       <c r="C31" s="28" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A32" s="37"/>
       <c r="B32" s="20"/>
       <c r="C32" s="28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A33" s="37"/>
       <c r="B33" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A34" s="37"/>
       <c r="B34" s="23"/>
       <c r="C34" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A35" s="37"/>
       <c r="B35" s="23"/>
       <c r="C35" s="28" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A36" s="37"/>
       <c r="B36" s="20"/>
       <c r="C36" s="28" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A37" s="37"/>
       <c r="B37" s="23"/>
       <c r="C37" s="28" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A38" s="37"/>
       <c r="B38" s="23"/>
       <c r="C38" s="28" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A39" s="37"/>
       <c r="B39" s="23"/>
       <c r="C39" s="28" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A40" s="37"/>
       <c r="B40" s="20"/>
       <c r="C40" s="28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A41" s="37"/>
       <c r="B41" s="20"/>
       <c r="C41" s="28" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A42" s="37"/>
       <c r="B42" s="20"/>
       <c r="C42" s="28" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="36" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="32"/>
       <c r="D43" s="34"/>
       <c r="E43" s="33"/>
     </row>
-    <row r="44" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="38" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="24"/>
       <c r="D44" s="25"/>
       <c r="E44" s="26"/>
     </row>
-    <row r="45" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="78" x14ac:dyDescent="0.4">
       <c r="A45" s="37"/>
       <c r="B45" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A46" s="36" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="32"/>
       <c r="D46" s="34"/>
       <c r="E46" s="33"/>
     </row>
-    <row r="47" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" s="38" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="32"/>
       <c r="D47" s="34"/>
       <c r="E47" s="33"/>
     </row>
-    <row r="48" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="39" x14ac:dyDescent="0.4">
       <c r="A48" s="37"/>
       <c r="B48" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="39" x14ac:dyDescent="0.4">
       <c r="A49" s="37"/>
       <c r="B49" s="23"/>
       <c r="C49" s="28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="39" x14ac:dyDescent="0.4">
       <c r="A50" s="37"/>
       <c r="B50" s="23"/>
       <c r="C50" s="28" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="38" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B51" s="33"/>
       <c r="C51" s="32"/>
       <c r="D51" s="34"/>
       <c r="E51" s="33"/>
     </row>
-    <row r="52" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="39" x14ac:dyDescent="0.4">
       <c r="A52" s="37"/>
       <c r="B52" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="39" x14ac:dyDescent="0.4">
       <c r="A53" s="37"/>
       <c r="B53" s="23"/>
       <c r="C53" s="28" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E53" s="30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="39" x14ac:dyDescent="0.4">
       <c r="A54" s="37"/>
       <c r="B54" s="23"/>
       <c r="C54" s="28" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E54" s="30" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1867,44 +2081,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E135CE57-9AF0-0C44-B53D-87D54EC7D6E5}">
-  <dimension ref="A2:H39"/>
+  <dimension ref="A2:H60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="60.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="50.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="63.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="50.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.83203125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="7.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.77734375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D2" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D3" s="15">
-        <f>COUNTA($D$8:$D102)</f>
-        <v>8</v>
+        <f>COUNTA($D$8:$D123)</f>
+        <v>22</v>
       </c>
       <c r="E3" s="15">
-        <f>COUNTA($E$8:$E102)</f>
+        <f>COUNTA($E$8:$E123)</f>
         <v>0</v>
       </c>
       <c r="F3" s="15" t="str">
@@ -1912,12 +2126,12 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D4" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E4" s="16">
-        <f>COUNTIF($E$8:$E102, "OK")</f>
+        <f>COUNTIF($E$8:$E123, "OK")</f>
         <v>0</v>
       </c>
       <c r="F4" s="16" t="str">
@@ -1925,12 +2139,12 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D5" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E5" s="16">
-        <f>COUNTIF($E$8:$E103, "NG")</f>
+        <f>COUNTIF($E$8:$E124, "NG")</f>
         <v>0</v>
       </c>
       <c r="F5" s="16" t="str">
@@ -1938,12 +2152,12 @@
         <v>0%</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="8" customFormat="1" ht="39" x14ac:dyDescent="0.4">
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>4</v>
@@ -1961,12 +2175,12 @@
         <v>8</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B8" s="4" t="str">
         <f>IFERROR(VLOOKUP($A8,シナリオ一覧!$C:$D,2,FALSE),"")</f>
@@ -1979,72 +2193,72 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="78" x14ac:dyDescent="0.4">
       <c r="A9" s="9"/>
       <c r="B9" s="2">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9"/>
       <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="78" x14ac:dyDescent="0.4">
       <c r="A11" s="9"/>
       <c r="B11" s="2">
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:8" ht="78" x14ac:dyDescent="0.4">
       <c r="A12" s="9"/>
       <c r="B12" s="2">
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="39" x14ac:dyDescent="0.4">
       <c r="A13" s="9"/>
       <c r="B13" s="2">
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B14" s="4" t="str">
         <f>IFERROR(VLOOKUP($A14,シナリオ一覧!$C:$D,2,FALSE),"")</f>
@@ -2057,49 +2271,49 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="78" x14ac:dyDescent="0.4">
       <c r="A15" s="9"/>
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="78" x14ac:dyDescent="0.4">
       <c r="A16" s="9"/>
       <c r="B16" s="2">
         <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="39" x14ac:dyDescent="0.4">
       <c r="A17" s="9"/>
       <c r="B17" s="2">
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B18" s="4" t="str">
         <f>IFERROR(VLOOKUP($A18,シナリオ一覧!$C:$D,2,FALSE),"")</f>
-        <v>iOS版のアプリで任意の学校の卒業アルバムの動画を見ることができる (QRコードスキャン)</v>
+        <v>iOS版のアプリで任意の学校の卒業アルバムの動画を見ることができる (バーコードスキャン)</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2108,216 +2322,485 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:8" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="9"/>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="78" x14ac:dyDescent="0.4">
+      <c r="A20" s="9"/>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="97.5" x14ac:dyDescent="0.4">
+      <c r="A21" s="9"/>
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="78" x14ac:dyDescent="0.4">
+      <c r="A22" s="9"/>
+      <c r="B22" s="2">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="39" x14ac:dyDescent="0.4">
+      <c r="A23" s="9"/>
+      <c r="B23" s="2">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="39" x14ac:dyDescent="0.4">
+      <c r="A24" s="9"/>
+      <c r="B24" s="2">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="4" t="str">
+        <f>IFERROR(VLOOKUP($A25,シナリオ一覧!$C:$D,2,FALSE),"")</f>
+        <v>iOS版のアプリで任意の学校の卒業アルバムの動画を見ることができる (ARカメラを切って、再びARカメラを起動する)</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" ht="78" x14ac:dyDescent="0.4">
+      <c r="A26" s="9"/>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="9"/>
+      <c r="B27" s="2">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" ht="98.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="9"/>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="4" t="str">
+        <f>IFERROR(VLOOKUP($A29,シナリオ一覧!$C:$D,2,FALSE),"")</f>
+        <v>iOS版のアプリで任意の学校の卒業アルバムの動画を見ることができる (前回の続き)</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" ht="39" x14ac:dyDescent="0.4">
+      <c r="A30" s="9"/>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="9"/>
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="9"/>
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="4" t="str">
+        <f>IFERROR(VLOOKUP($A33,シナリオ一覧!$C:$D,2,FALSE),"")</f>
+        <v>iOS版のアプリで別の任意の学校の卒業アルバムに切り替えた時に、以前の卒業アルバムの動画は再生しない (テキスト入力)</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="9"/>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="9"/>
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="4" t="str">
+        <f>IFERROR(VLOOKUP($A36,シナリオ一覧!$C:$D,2,FALSE),"")</f>
+        <v>iOS版のアプリで別の任意の学校の卒業アルバムに切り替えた時に、以前の卒業アルバムの動画は再生しない (バーコード)</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="9"/>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="9"/>
+      <c r="B38" s="2">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" s="9"/>
+      <c r="B39" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="4" t="str">
-        <f>IFERROR(VLOOKUP($A19,シナリオ一覧!$C:$D,2,FALSE),"")</f>
-        <v>iOS版のアプリで任意の学校の卒業アルバムの動画を見ることができる (ARカメラを切って、再びARカメラを起動する)</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="B40" s="4" t="str">
+        <f>IFERROR(VLOOKUP($A40,シナリオ一覧!$C:$D,2,FALSE),"")</f>
+        <v>iOS版のアプリで別の任意の学校の卒業アルバムに切り替えた時に、以前の卒業アルバムの動画は再生しない (ARカメラを切って、再びARカメラを起動する)</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="9"/>
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="9"/>
+      <c r="B42" s="2">
+        <v>2</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" s="9"/>
+      <c r="B43" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A44" s="9"/>
+      <c r="B44" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="4" t="str">
-        <f>IFERROR(VLOOKUP($A20,シナリオ一覧!$C:$D,2,FALSE),"")</f>
-        <v>iOS版のアプリで任意の学校の卒業アルバムの動画を見ることができる (前回の続き)</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="4" t="str">
-        <f>IFERROR(VLOOKUP($A21,シナリオ一覧!$C:$D,2,FALSE),"")</f>
-        <v>iOS版のアプリで別の任意の学校の卒業アルバムに切り替えた時に、以前の卒業アルバムの動画は再生しない (テキスト入力)</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="4" t="str">
-        <f>IFERROR(VLOOKUP($A22,シナリオ一覧!$C:$D,2,FALSE),"")</f>
-        <v>iOS版のアプリで別の任意の学校の卒業アルバムに切り替えた時に、以前の卒業アルバムの動画は再生しない (QRコード)</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="4" t="str">
-        <f>IFERROR(VLOOKUP($A23,シナリオ一覧!$C:$D,2,FALSE),"")</f>
-        <v>iOS版のアプリで別の任意の学校の卒業アルバムに切り替えた時に、以前の卒業アルバムの動画は再生しない (ARカメラを切って、再びARカメラを起動する)</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="4" t="str">
-        <f>IFERROR(VLOOKUP($A24,シナリオ一覧!$C:$D,2,FALSE),"")</f>
+      <c r="B45" s="4" t="str">
+        <f>IFERROR(VLOOKUP($A45,シナリオ一覧!$C:$D,2,FALSE),"")</f>
         <v>iOS版のアプリで別の任意の学校の卒業アルバムに切り替えた時に、以前の卒業アルバムの動画は再生しない (前回のつづき)</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A25,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A26,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A27,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A28,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A29,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A30,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A31,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A32,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A33,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A34,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A35,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A36,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A37,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A38,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="7"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="9"/>
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="9"/>
+      <c r="B47" s="2">
+        <v>2</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A48" s="9"/>
+      <c r="B48" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" s="9"/>
+      <c r="B49" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" s="9"/>
+      <c r="B50" s="7" t="str">
+        <f>IFERROR(VLOOKUP($A50,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" s="9"/>
+      <c r="B51" s="7" t="str">
+        <f>IFERROR(VLOOKUP($A51,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" s="9"/>
+      <c r="B52" s="7" t="str">
+        <f>IFERROR(VLOOKUP($A52,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" s="9"/>
+      <c r="B53" s="7" t="str">
+        <f>IFERROR(VLOOKUP($A53,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54" s="9"/>
+      <c r="B54" s="7" t="str">
+        <f>IFERROR(VLOOKUP($A54,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" s="9"/>
+      <c r="B55" s="7" t="str">
+        <f>IFERROR(VLOOKUP($A55,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" s="9"/>
+      <c r="B56" s="7" t="str">
+        <f>IFERROR(VLOOKUP($A56,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" s="9"/>
+      <c r="B57" s="7" t="str">
+        <f>IFERROR(VLOOKUP($A57,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" s="9"/>
+      <c r="B58" s="7" t="str">
+        <f>IFERROR(VLOOKUP($A58,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59" s="9"/>
+      <c r="B59" s="7" t="str">
+        <f>IFERROR(VLOOKUP($A59,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B60" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E38" xr:uid="{A0FDEC02-93F6-7548-B181-C249C43C029D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E59" xr:uid="{A0FDEC02-93F6-7548-B181-C249C43C029D}">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F09AA10-454A-7A41-9127-393B9E6AC27F}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="60.83203125" customWidth="1"/>
-    <col min="4" max="4" width="50.83203125" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="60.77734375" style="40" customWidth="1"/>
+    <col min="4" max="4" width="50.77734375" style="40" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.77734375" style="40" customWidth="1"/>
+    <col min="9" max="16384" width="11.5546875" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="10"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
       <c r="D2" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
       <c r="D3" s="15">
-        <f>COUNTA($D$8:$D102)</f>
+        <f>COUNTA($D$8:$D110)</f>
         <v>0</v>
       </c>
       <c r="E3" s="15">
-        <f>COUNTA($E$8:$E102)</f>
+        <f>COUNTA($E$8:$E110)</f>
         <v>0</v>
       </c>
       <c r="F3" s="15" t="e">
@@ -2325,13 +2808,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10"/>
       <c r="D4" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E4" s="16">
-        <f>COUNTIF($E$8:$E102, "OK")</f>
+        <f>COUNTIF($E$8:$E110, "OK")</f>
         <v>0</v>
       </c>
       <c r="F4" s="16" t="e">
@@ -2339,13 +2822,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
       <c r="D5" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E5" s="16">
-        <f>COUNTIF($E$8:$E103, "NG")</f>
+        <f>COUNTIF($E$8:$E111, "NG")</f>
         <v>0</v>
       </c>
       <c r="F5" s="16" t="e">
@@ -2353,15 +2836,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:8" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="41" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>4</v>
@@ -2382,9 +2865,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B8" s="4" t="str">
         <f>IFERROR(VLOOKUP($A8,シナリオ一覧!$C:$D,2,FALSE),"")</f>
@@ -2397,213 +2880,405 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="9"/>
       <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="9"/>
       <c r="B11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="9"/>
       <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="9"/>
       <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+    </row>
+    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="9"/>
       <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A19,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A20,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A21,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A22,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A23,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A24,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A25,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A26,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A27,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+    </row>
+    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="9"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+    </row>
+    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="9"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+    </row>
+    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="9"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+    </row>
+    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="9"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+    </row>
+    <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="9"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B28" s="7" t="str">
         <f>IFERROR(VLOOKUP($A28,シナリオ一覧!$C:$D,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B29" s="7" t="str">
         <f>IFERROR(VLOOKUP($A29,シナリオ一覧!$C:$D,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B30" s="7" t="str">
         <f>IFERROR(VLOOKUP($A30,シナリオ一覧!$C:$D,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B31" s="7" t="str">
         <f>IFERROR(VLOOKUP($A31,シナリオ一覧!$C:$D,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B32" s="7" t="str">
         <f>IFERROR(VLOOKUP($A32,シナリオ一覧!$C:$D,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" s="7" t="str">
         <f>IFERROR(VLOOKUP($A33,シナリオ一覧!$C:$D,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" s="7" t="str">
         <f>IFERROR(VLOOKUP($A34,シナリオ一覧!$C:$D,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" s="7" t="str">
         <f>IFERROR(VLOOKUP($A35,シナリオ一覧!$C:$D,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" s="7" t="str">
         <f>IFERROR(VLOOKUP($A36,シナリオ一覧!$C:$D,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" s="7" t="str">
         <f>IFERROR(VLOOKUP($A37,シナリオ一覧!$C:$D,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" s="7" t="str">
         <f>IFERROR(VLOOKUP($A38,シナリオ一覧!$C:$D,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="7"/>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B39" s="7" t="str">
+        <f>IFERROR(VLOOKUP($A39,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B40" s="7" t="str">
+        <f>IFERROR(VLOOKUP($A40,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B41" s="7" t="str">
+        <f>IFERROR(VLOOKUP($A41,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B42" s="7" t="str">
+        <f>IFERROR(VLOOKUP($A42,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B43" s="7" t="str">
+        <f>IFERROR(VLOOKUP($A43,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B44" s="7" t="str">
+        <f>IFERROR(VLOOKUP($A44,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B45" s="7" t="str">
+        <f>IFERROR(VLOOKUP($A45,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B46" s="7" t="str">
+        <f>IFERROR(VLOOKUP($A46,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B47" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8" xr:uid="{51E85BA9-2908-914E-9CE1-7F948C095BFD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E9 E11 E13 E15 E17 E19 E21 E23 E25 E27" xr:uid="{51E85BA9-2908-914E-9CE1-7F948C095BFD}">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A1D9D-00BF-0D49-AAA3-D770B3BB5007}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="60.83203125" customWidth="1"/>
-    <col min="4" max="4" width="50.83203125" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="60.77734375" customWidth="1"/>
+    <col min="4" max="4" width="50.77734375" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="10"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
       <c r="D2" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
       <c r="D3" s="15">
-        <f>COUNTA($D$8:$D102)</f>
+        <f>COUNTA($D$8:$D101)</f>
         <v>0</v>
       </c>
       <c r="E3" s="15">
-        <f>COUNTA($E$8:$E102)</f>
+        <f>COUNTA($E$8:$E101)</f>
         <v>0</v>
       </c>
       <c r="F3" s="15" t="e">
@@ -2611,13 +3286,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10"/>
       <c r="D4" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E4" s="16">
-        <f>COUNTIF($E$8:$E102, "OK")</f>
+        <f>COUNTIF($E$8:$E101, "OK")</f>
         <v>0</v>
       </c>
       <c r="F4" s="16" t="e">
@@ -2625,13 +3300,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
       <c r="D5" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E5" s="16">
-        <f>COUNTIF($E$8:$E103, "NG")</f>
+        <f>COUNTIF($E$8:$E102, "NG")</f>
         <v>0</v>
       </c>
       <c r="F5" s="16" t="e">
@@ -2639,15 +3314,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:8" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="8" customFormat="1" ht="39" x14ac:dyDescent="0.4">
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>4</v>
@@ -2668,9 +3343,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B8" s="4" t="str">
         <f>IFERROR(VLOOKUP($A8,シナリオ一覧!$C:$D,2,FALSE),"")</f>
@@ -2683,160 +3358,257 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B18" s="7" t="str">
+        <f>IFERROR(VLOOKUP($A19,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B19" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A19,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IFERROR(VLOOKUP($A20,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B20" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A20,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IFERROR(VLOOKUP($A21,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B21" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A21,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IFERROR(VLOOKUP($A22,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B22" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A22,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IFERROR(VLOOKUP($A23,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B23" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A23,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IFERROR(VLOOKUP($A24,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B24" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A24,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IFERROR(VLOOKUP($A25,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B25" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A25,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IFERROR(VLOOKUP($A26,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B26" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A26,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IFERROR(VLOOKUP($A27,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B27" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A27,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IFERROR(VLOOKUP($A28,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B28" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A28,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IFERROR(VLOOKUP($A29,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B29" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A29,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IFERROR(VLOOKUP($A30,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B30" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A30,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IFERROR(VLOOKUP($A31,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B31" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A31,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IFERROR(VLOOKUP($A32,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B32" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A32,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IFERROR(VLOOKUP($A33,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A33,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IFERROR(VLOOKUP($A34,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A34,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IFERROR(VLOOKUP($A35,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A35,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IFERROR(VLOOKUP($A36,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A36,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+        <f>IFERROR(VLOOKUP($A37,シナリオ一覧!$C:$D,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A37,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" s="7" t="str">
         <f>IFERROR(VLOOKUP($A38,シナリオ一覧!$C:$D,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="7"/>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B38" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8" xr:uid="{61010C96-E613-DA4D-AAAB-E42AE42A5A35}">
       <formula1>"OK,NG"</formula1>
@@ -2851,38 +3623,38 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pane ySplit="7" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="60.83203125" customWidth="1"/>
-    <col min="4" max="4" width="50.83203125" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="60.77734375" customWidth="1"/>
+    <col min="4" max="4" width="50.77734375" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="10"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
       <c r="D2" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
       <c r="D3" s="15">
         <f>COUNTA($D$8:$D102)</f>
@@ -2897,10 +3669,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10"/>
       <c r="D4" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E4" s="16">
         <f>COUNTIF($E$8:$E102, "OK")</f>
@@ -2911,10 +3683,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
       <c r="D5" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E5" s="16">
         <f>COUNTIF($E$8:$E103, "NG")</f>
@@ -2925,15 +3697,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:8" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="8" customFormat="1" ht="39" x14ac:dyDescent="0.4">
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>4</v>
@@ -2954,9 +3726,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B8" s="4" t="str">
         <f>IFERROR(VLOOKUP($A8,シナリオ一覧!$C:$D,2,FALSE),"")</f>
@@ -2969,160 +3741,254 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A19,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="7" t="str">
-        <f>IFERROR(VLOOKUP($A20,シナリオ一覧!$C:$D,3,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B21" s="7" t="str">
         <f>IFERROR(VLOOKUP($A21,シナリオ一覧!$C:$D,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B22" s="7" t="str">
         <f>IFERROR(VLOOKUP($A22,シナリオ一覧!$C:$D,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B23" s="7" t="str">
         <f>IFERROR(VLOOKUP($A23,シナリオ一覧!$C:$D,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B24" s="7" t="str">
         <f>IFERROR(VLOOKUP($A24,シナリオ一覧!$C:$D,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B25" s="7" t="str">
         <f>IFERROR(VLOOKUP($A25,シナリオ一覧!$C:$D,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B26" s="7" t="str">
         <f>IFERROR(VLOOKUP($A26,シナリオ一覧!$C:$D,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B27" s="7" t="str">
         <f>IFERROR(VLOOKUP($A27,シナリオ一覧!$C:$D,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B28" s="7" t="str">
         <f>IFERROR(VLOOKUP($A28,シナリオ一覧!$C:$D,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B29" s="7" t="str">
         <f>IFERROR(VLOOKUP($A29,シナリオ一覧!$C:$D,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B30" s="7" t="str">
         <f>IFERROR(VLOOKUP($A30,シナリオ一覧!$C:$D,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B31" s="7" t="str">
         <f>IFERROR(VLOOKUP($A31,シナリオ一覧!$C:$D,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B32" s="7" t="str">
         <f>IFERROR(VLOOKUP($A32,シナリオ一覧!$C:$D,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" s="7" t="str">
         <f>IFERROR(VLOOKUP($A33,シナリオ一覧!$C:$D,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" s="7" t="str">
         <f>IFERROR(VLOOKUP($A34,シナリオ一覧!$C:$D,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" s="7" t="str">
         <f>IFERROR(VLOOKUP($A35,シナリオ一覧!$C:$D,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" s="7" t="str">
         <f>IFERROR(VLOOKUP($A36,シナリオ一覧!$C:$D,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" s="7" t="str">
         <f>IFERROR(VLOOKUP($A37,シナリオ一覧!$C:$D,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" s="7" t="str">
         <f>IFERROR(VLOOKUP($A38,シナリオ一覧!$C:$D,3,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8" xr:uid="{50750A71-4C2E-AD45-9F5C-35F02E04CE81}">
       <formula1>"OK,NG"</formula1>
